--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220519_130519.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220519_130519.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -728,9 +728,6 @@
   </si>
   <si>
     <t>SOURCE MUSIC</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SSK</t>
@@ -1997,7 +1994,7 @@
         <v>182</v>
       </c>
       <c r="G33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H33" t="s">
         <v>233</v>
@@ -2023,7 +2020,7 @@
         <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H34" t="s">
         <v>233</v>
@@ -2049,7 +2046,7 @@
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H35" t="s">
         <v>233</v>
@@ -2179,7 +2176,7 @@
         <v>184</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H40" t="s">
         <v>233</v>
@@ -2257,7 +2254,7 @@
         <v>185</v>
       </c>
       <c r="G43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
         <v>233</v>
@@ -2387,7 +2384,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H48" t="s">
         <v>233</v>
@@ -2465,7 +2462,7 @@
         <v>187</v>
       </c>
       <c r="G51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H51" t="s">
         <v>233</v>
@@ -2517,7 +2514,7 @@
         <v>188</v>
       </c>
       <c r="G53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H53" t="s">
         <v>233</v>
@@ -2543,7 +2540,7 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
         <v>233</v>
@@ -2569,10 +2566,10 @@
         <v>189</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2647,7 +2644,7 @@
         <v>192</v>
       </c>
       <c r="G58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H58" t="s">
         <v>233</v>
@@ -2673,7 +2670,7 @@
         <v>193</v>
       </c>
       <c r="G59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H59" t="s">
         <v>233</v>
@@ -2699,7 +2696,7 @@
         <v>193</v>
       </c>
       <c r="G60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H60" t="s">
         <v>233</v>
@@ -2725,7 +2722,7 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H61" t="s">
         <v>233</v>
@@ -2829,7 +2826,7 @@
         <v>197</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H65" t="s">
         <v>233</v>
@@ -2855,7 +2852,7 @@
         <v>198</v>
       </c>
       <c r="G66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
         <v>233</v>
@@ -2881,10 +2878,10 @@
         <v>75</v>
       </c>
       <c r="G67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2959,7 +2956,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H70" t="s">
         <v>233</v>
@@ -2985,7 +2982,7 @@
         <v>201</v>
       </c>
       <c r="G71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H71" t="s">
         <v>233</v>
@@ -3011,7 +3008,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H72" t="s">
         <v>233</v>
@@ -3037,7 +3034,7 @@
         <v>202</v>
       </c>
       <c r="G73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H73" t="s">
         <v>233</v>
@@ -3063,7 +3060,7 @@
         <v>203</v>
       </c>
       <c r="G74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H74" t="s">
         <v>233</v>
@@ -3141,7 +3138,7 @@
         <v>206</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H77" t="s">
         <v>233</v>
@@ -3193,7 +3190,7 @@
         <v>207</v>
       </c>
       <c r="G79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H79" t="s">
         <v>233</v>
@@ -3245,7 +3242,7 @@
         <v>209</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H81" t="s">
         <v>233</v>
@@ -3297,10 +3294,10 @@
         <v>211</v>
       </c>
       <c r="G83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3453,7 +3450,7 @@
         <v>215</v>
       </c>
       <c r="G89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H89" t="s">
         <v>233</v>
@@ -3479,7 +3476,7 @@
         <v>216</v>
       </c>
       <c r="G90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H90" t="s">
         <v>233</v>
@@ -3505,7 +3502,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H91" t="s">
         <v>233</v>
@@ -3557,7 +3554,7 @@
         <v>186</v>
       </c>
       <c r="G93" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H93" t="s">
         <v>233</v>
@@ -3583,7 +3580,7 @@
         <v>218</v>
       </c>
       <c r="G94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H94" t="s">
         <v>233</v>
@@ -3635,7 +3632,7 @@
         <v>220</v>
       </c>
       <c r="G96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H96" t="s">
         <v>233</v>
@@ -3765,7 +3762,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H101" t="s">
         <v>233</v>
